--- a/학습자료/단답형/한국사_연표_5 일제강점기.xlsx
+++ b/학습자료/단답형/한국사_연표_5 일제강점기.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
